--- a/OPIDDaily/Uploads/Cleared Checks Bird People.xlsx
+++ b/OPIDDaily/Uploads/Cleared Checks Bird People.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apricot\OPID\Cleared Checks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929242E1-8CD5-4638-AE37-E650BAA15D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2937D6-8920-4911-A7FE-10B274398F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35205" yWindow="2910" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36810" yWindow="3765" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cleared Checks" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Type</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Client, Unknown</t>
+  </si>
+  <si>
+    <t>Gull, Glenda</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,6 +473,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43885</v>
+      </c>
+      <c r="I4">
+        <v>16238</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
